--- a/assets/names.xlsx
+++ b/assets/names.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tao\Desktop\scrape_human\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tao\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46209ABF-E456-401E-ABA7-AFB3AFF2C6AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBADAEA8-980F-48E3-B73A-E56B7A7BEBD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1875" yWindow="1875" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>李琨</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -36,13 +36,540 @@
   </si>
   <si>
     <t>舒宗兴</t>
+  </si>
+  <si>
+    <t>叶南普</t>
+  </si>
+  <si>
+    <t>肖建伟</t>
+  </si>
+  <si>
+    <t>曾康李</t>
+  </si>
+  <si>
+    <t>邓三军</t>
+  </si>
+  <si>
+    <t>王长军</t>
+  </si>
+  <si>
+    <t>聂健</t>
+  </si>
+  <si>
+    <t>王伦</t>
+  </si>
+  <si>
+    <t>熊兴云</t>
+  </si>
+  <si>
+    <t>廖 晖</t>
+  </si>
+  <si>
+    <t>邹胜权</t>
+  </si>
+  <si>
+    <t>田泽生</t>
+  </si>
+  <si>
+    <t>陈建军</t>
+  </si>
+  <si>
+    <t>王旭波</t>
+  </si>
+  <si>
+    <t>王忠林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱海</t>
+  </si>
+  <si>
+    <t>王贵</t>
+  </si>
+  <si>
+    <t>薛新峰</t>
+  </si>
+  <si>
+    <t>唐川</t>
+  </si>
+  <si>
+    <t>高建平</t>
+  </si>
+  <si>
+    <t>李伟</t>
+  </si>
+  <si>
+    <t>罗宣杨</t>
+  </si>
+  <si>
+    <t>杨其慧</t>
+  </si>
+  <si>
+    <t>史丽华</t>
+  </si>
+  <si>
+    <t>王兴会</t>
+  </si>
+  <si>
+    <t>吴有恒</t>
+  </si>
+  <si>
+    <t>赵天明</t>
+  </si>
+  <si>
+    <t>廖天彬</t>
+  </si>
+  <si>
+    <t>李建斌</t>
+  </si>
+  <si>
+    <t>唐锡和</t>
+  </si>
+  <si>
+    <t>张桂林</t>
+  </si>
+  <si>
+    <t>管麦燕</t>
+  </si>
+  <si>
+    <t>邱长征</t>
+  </si>
+  <si>
+    <t>谢唐天</t>
+  </si>
+  <si>
+    <t>弓德生</t>
+  </si>
+  <si>
+    <t>浦东</t>
+  </si>
+  <si>
+    <t>李凤香</t>
+  </si>
+  <si>
+    <t>宋震星</t>
+  </si>
+  <si>
+    <t>龙运兵</t>
+  </si>
+  <si>
+    <t>吴玉家</t>
+  </si>
+  <si>
+    <t>刘锡康</t>
+  </si>
+  <si>
+    <t>聂峰</t>
+  </si>
+  <si>
+    <t>陈文娟</t>
+  </si>
+  <si>
+    <t>孙炎焱</t>
+  </si>
+  <si>
+    <t>舒红</t>
+  </si>
+  <si>
+    <t>刘德兵</t>
+  </si>
+  <si>
+    <t>刘庆忠</t>
+  </si>
+  <si>
+    <t>杨云洪</t>
+  </si>
+  <si>
+    <t>任敏昌</t>
+  </si>
+  <si>
+    <t>左志广</t>
+  </si>
+  <si>
+    <t>肖清华</t>
+  </si>
+  <si>
+    <t>王承俊</t>
+  </si>
+  <si>
+    <t>常利良</t>
+  </si>
+  <si>
+    <t>谭铭</t>
+  </si>
+  <si>
+    <t>陈文平</t>
+  </si>
+  <si>
+    <t>张琪</t>
+  </si>
+  <si>
+    <t>黎平富</t>
+  </si>
+  <si>
+    <t>宋庆伦</t>
+  </si>
+  <si>
+    <t>曾利涛</t>
+  </si>
+  <si>
+    <t>郭浩</t>
+  </si>
+  <si>
+    <t>朱书平</t>
+  </si>
+  <si>
+    <t>梁登斌</t>
+  </si>
+  <si>
+    <t>张强</t>
+  </si>
+  <si>
+    <t>王苏蓉</t>
+  </si>
+  <si>
+    <t>孙仁勇</t>
+  </si>
+  <si>
+    <t>黄俊</t>
+  </si>
+  <si>
+    <t>薛东</t>
+  </si>
+  <si>
+    <t>王强</t>
+  </si>
+  <si>
+    <t>王辉</t>
+  </si>
+  <si>
+    <t>唐海云</t>
+  </si>
+  <si>
+    <t>黄贵彬</t>
+  </si>
+  <si>
+    <t>曾省稚</t>
+  </si>
+  <si>
+    <t>杨廷超</t>
+  </si>
+  <si>
+    <t>段双胜</t>
+  </si>
+  <si>
+    <t>张彬</t>
+  </si>
+  <si>
+    <t>钟成建</t>
+  </si>
+  <si>
+    <t>欧才青</t>
+  </si>
+  <si>
+    <t>冯斌</t>
+  </si>
+  <si>
+    <t>尹洪晔</t>
+  </si>
+  <si>
+    <t>江平</t>
+  </si>
+  <si>
+    <t>何杰</t>
+  </si>
+  <si>
+    <t>邓学国</t>
+  </si>
+  <si>
+    <t>迟思圳</t>
+  </si>
+  <si>
+    <t>邓木英</t>
+  </si>
+  <si>
+    <t>韩英</t>
+  </si>
+  <si>
+    <t>吕永涛</t>
+  </si>
+  <si>
+    <t>曹先元</t>
+  </si>
+  <si>
+    <t>杨偲</t>
+  </si>
+  <si>
+    <t>王生南</t>
+  </si>
+  <si>
+    <t>叶翠辉</t>
+  </si>
+  <si>
+    <t>王飞</t>
+  </si>
+  <si>
+    <t>王益强</t>
+  </si>
+  <si>
+    <t>朱良锡</t>
+  </si>
+  <si>
+    <t>汪光敏</t>
+  </si>
+  <si>
+    <t>冉勇</t>
+  </si>
+  <si>
+    <t>王旭明</t>
+  </si>
+  <si>
+    <t>杨丽</t>
+  </si>
+  <si>
+    <t>陶剑锋</t>
+  </si>
+  <si>
+    <t>陈玉秀</t>
+  </si>
+  <si>
+    <t>黄涛</t>
+  </si>
+  <si>
+    <t>陈锐</t>
+  </si>
+  <si>
+    <t>范华荣</t>
+  </si>
+  <si>
+    <t>江林</t>
+  </si>
+  <si>
+    <t>李传富</t>
+  </si>
+  <si>
+    <t>李永誉</t>
+  </si>
+  <si>
+    <t>廖浩然</t>
+  </si>
+  <si>
+    <t>刘成</t>
+  </si>
+  <si>
+    <t>刘慧</t>
+  </si>
+  <si>
+    <t>刘体军</t>
+  </si>
+  <si>
+    <t>刘子尧</t>
+  </si>
+  <si>
+    <t>卢晓玲</t>
+  </si>
+  <si>
+    <t>罗婧瑄</t>
+  </si>
+  <si>
+    <t>马微</t>
+  </si>
+  <si>
+    <t>苏愿</t>
+  </si>
+  <si>
+    <t>孙勇林</t>
+  </si>
+  <si>
+    <t>张义德</t>
+  </si>
+  <si>
+    <t>张文清</t>
+  </si>
+  <si>
+    <t>罗志华</t>
+  </si>
+  <si>
+    <t>毛亚伟</t>
+  </si>
+  <si>
+    <t>倪军</t>
+  </si>
+  <si>
+    <t>石明</t>
+  </si>
+  <si>
+    <t>张如军</t>
+  </si>
+  <si>
+    <t>王伟</t>
+  </si>
+  <si>
+    <t>余小军</t>
+  </si>
+  <si>
+    <t>雷旭桃</t>
+  </si>
+  <si>
+    <t>曾为珂</t>
+  </si>
+  <si>
+    <t>张传斌</t>
+  </si>
+  <si>
+    <t>朱桂明</t>
+  </si>
+  <si>
+    <t>刘从清</t>
+  </si>
+  <si>
+    <t>杨丹</t>
+  </si>
+  <si>
+    <t>范永超</t>
+  </si>
+  <si>
+    <t>陈进松</t>
+  </si>
+  <si>
+    <t>陈磊</t>
+  </si>
+  <si>
+    <t>程莉</t>
+  </si>
+  <si>
+    <t>邓家兴</t>
+  </si>
+  <si>
+    <t>邓志霄</t>
+  </si>
+  <si>
+    <t>黄大宇</t>
+  </si>
+  <si>
+    <t>刘靖源</t>
+  </si>
+  <si>
+    <t>唐彪</t>
+  </si>
+  <si>
+    <t>王婵珍</t>
+  </si>
+  <si>
+    <t>曾文奇</t>
+  </si>
+  <si>
+    <t>张捷</t>
+  </si>
+  <si>
+    <t>朱健</t>
+  </si>
+  <si>
+    <t>潘俊峰</t>
+  </si>
+  <si>
+    <t>易娇</t>
+  </si>
+  <si>
+    <t>孙帆程</t>
+  </si>
+  <si>
+    <t>李欣谕</t>
+  </si>
+  <si>
+    <t>归立业</t>
+  </si>
+  <si>
+    <t>付强</t>
+  </si>
+  <si>
+    <t>常春明</t>
+  </si>
+  <si>
+    <t>田艳婷</t>
+  </si>
+  <si>
+    <t>王彬祝</t>
+  </si>
+  <si>
+    <t>余世彬</t>
+  </si>
+  <si>
+    <t>张锦燕</t>
+  </si>
+  <si>
+    <t>关磊</t>
+  </si>
+  <si>
+    <t>田雨鑫</t>
+  </si>
+  <si>
+    <t>赖建洪</t>
+  </si>
+  <si>
+    <t>钟之加</t>
+  </si>
+  <si>
+    <t>谢常伟</t>
+  </si>
+  <si>
+    <t>吴素蓉</t>
+  </si>
+  <si>
+    <t>艾建明</t>
+  </si>
+  <si>
+    <t>徐红</t>
+  </si>
+  <si>
+    <t>黄兴山</t>
+  </si>
+  <si>
+    <t>陈涛</t>
+  </si>
+  <si>
+    <t>罗丰全</t>
+  </si>
+  <si>
+    <t>曹志波</t>
+  </si>
+  <si>
+    <t>李晓齐</t>
+  </si>
+  <si>
+    <t>魏世伟</t>
+  </si>
+  <si>
+    <t>梁兆华</t>
+  </si>
+  <si>
+    <t>胡月</t>
+  </si>
+  <si>
+    <t>帅溪</t>
+  </si>
+  <si>
+    <t>耿巧</t>
+  </si>
+  <si>
+    <t>杨正武</t>
+  </si>
+  <si>
+    <t>何天刚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙新</t>
+  </si>
+  <si>
+    <t>肖波</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +592,21 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -106,13 +648,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -417,9 +965,894 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A132" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A137" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A138" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A139" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A144" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A145" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A147" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A149" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A150" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A151" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A156" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A161" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A163" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A166" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A167" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A168" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A169" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A171" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A173" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A174" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A175" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A176" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A177" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A178" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A55" r:id="rId1" xr:uid="{679DC2C5-0ABB-4D4B-A926-AED801E199D9}"/>
+    <hyperlink ref="A56" r:id="rId2" xr:uid="{24C1FBB3-4D3F-48B5-99B7-28E209F91EFB}"/>
+    <hyperlink ref="A152" display="常春明" xr:uid="{1C0054BB-B7D4-4E67-96DB-813C30B21A58}"/>
+    <hyperlink ref="A163" r:id="rId3" tooltip="http://118.122.250.198:88/SysPerson/personsys/JianLi/EntApp/ChanageEntDetail.aspx?FID=1cd31288-c557-4f6e-8ee4-ea1f06319266&amp;opList=Export" xr:uid="{F1EDD9A6-9706-4AB6-A041-82953AF45DE6}"/>
+    <hyperlink ref="A164" r:id="rId4" tooltip="http://118.122.250.198:88/SysPerson/personsys/JianLi/EntApp/ChanageEntDetail.aspx?FID=5a7b7b03-1798-488b-8c02-f03d7338c415&amp;opList=Export" xr:uid="{6C35E2AE-ACC0-4CC9-9B8A-8241F6DE4A85}"/>
+    <hyperlink ref="A168" r:id="rId5" tooltip="http://118.122.250.198:88/SysPerson/personsys/JianLi/EntApp/ChanageEntDetail.aspx?FID=592cd9da-a20a-4543-9142-77209e41aa45&amp;opList=Export" xr:uid="{2B48043D-05AC-4117-B015-CEFDE8DC75DE}"/>
+    <hyperlink ref="A169" r:id="rId6" tooltip="http://118.122.250.198:88/SysPerson/personsys/JianLi/EntApp/ChanageEntDetail.aspx?FID=da3202c3-a153-4efb-b1ef-3e9f2e1ad91d&amp;opList=Export" xr:uid="{455CE477-DDE0-4223-84DF-3B69F1822DF7}"/>
+    <hyperlink ref="A175" r:id="rId7" tooltip="http://118.122.250.198:88/SysPerson/personsys/JianLi/EntApp/ChanageEntDetail.aspx?FID=9e9dd800-ab16-4fd9-8e47-31d2379317d4&amp;opList=Export" xr:uid="{7EB233C1-F533-49E8-828C-7FABB8F38141}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>